--- a/Requirements w priority.xlsx
+++ b/Requirements w priority.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Universitetet i Bergen\INF112\Thebadguys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erlend\Desktop\inf112\Thebadguys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA37B83-65D4-47D2-8256-E10CBA280AD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F0064-2EE2-4AB2-88C5-0FF6F6D20E1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{C9ECD5A4-CA04-43CF-B078-E10DFD5F0D06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9ECD5A4-CA04-43CF-B078-E10DFD5F0D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Krav for RoboRally</t>
   </si>
@@ -623,18 +623,18 @@
   <dimension ref="C3:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
     <col min="5" max="5" width="17" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>70</v>
       </c>
@@ -642,7 +642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -719,47 +719,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -770,15 +785,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>13</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>14</v>
       </c>
@@ -786,79 +804,106 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E19" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>16</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E20" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>20</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>21</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E25" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>22</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E26" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>23</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E27" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -866,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -874,52 +919,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>27</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E32" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>28</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E33" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E35" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>31</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>32</v>
       </c>
@@ -927,47 +987,62 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>33</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E38" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>34</v>
       </c>
+      <c r="D39" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E39" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>35</v>
       </c>
+      <c r="D40" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E40" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>36</v>
       </c>
+      <c r="D41" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E41" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>37</v>
       </c>
+      <c r="D42" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E42" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>38</v>
       </c>
@@ -978,15 +1053,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>39</v>
       </c>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E44" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>40</v>
       </c>
@@ -994,12 +1072,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
         <v>68</v>
       </c>
@@ -1010,7 +1088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C49" s="2" t="s">
         <v>69</v>
       </c>
@@ -1021,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>42</v>
       </c>
@@ -1032,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
@@ -1043,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -1054,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>45</v>
       </c>
@@ -1065,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>46</v>
       </c>
@@ -1076,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>47</v>
       </c>
@@ -1087,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>48</v>
       </c>
@@ -1098,12 +1176,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C58" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>50</v>
       </c>
@@ -1111,71 +1189,95 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
+      <c r="D60" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E60" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>52</v>
       </c>
+      <c r="D61" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E61" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>53</v>
       </c>
+      <c r="D62" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E62" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
+      <c r="D63" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E63" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>55</v>
       </c>
+      <c r="D64" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E64" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>56</v>
       </c>
+      <c r="D65" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E65" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>57</v>
       </c>
+      <c r="D66" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E66" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>58</v>
       </c>
+      <c r="D67" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E67" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>59</v>
       </c>
@@ -1183,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>60</v>
       </c>
@@ -1191,12 +1293,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>62</v>
       </c>
@@ -1204,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>63</v>
       </c>
@@ -1212,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>64</v>
       </c>
@@ -1220,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>65</v>
       </c>
@@ -1228,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>66</v>
       </c>
@@ -1236,9 +1338,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>67</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
